--- a/Original/CN/Game/KeyItem.xlsx
+++ b/Original/CN/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>

--- a/Original/CN/Game/KeyItem.xlsx
+++ b/Original/CN/Game/KeyItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>
@@ -153,6 +153,21 @@
     <t xml:space="preserve">ナイミール深層への扉の鍵だ。</t>
   </si>
   <si>
+    <t xml:space="preserve">550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bracelet of Forgiveness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赦しの腕輪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tattered bracelet woven from withered vines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">枯れた蔦で編まれたボロボロの腕輪だ。</t>
+  </si>
+  <si>
     <t xml:space="preserve">590</t>
   </si>
   <si>
@@ -222,6 +237,9 @@
     <t xml:space="preserve">EA 23.8</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.131</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.50</t>
   </si>
   <si>
@@ -244,6 +262,9 @@
   </si>
   <si>
     <t xml:space="preserve">尼米尔的钥匙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宽恕的手环</t>
   </si>
   <si>
     <t xml:space="preserve">灯光师执照</t>
@@ -279,6 +300,9 @@
   </si>
   <si>
     <t xml:space="preserve">通往尼米尔深层之门的钥匙。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用枯萎的藤蔓编织而成的破旧手环。</t>
   </si>
   <si>
     <t xml:space="preserve">灯光师执照。只要带在身上，就能自由改变灯光的颜色。</t>
@@ -402,10 +426,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -414,7 +438,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -428,10 +452,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -440,7 +464,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -454,10 +478,10 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -466,7 +490,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -480,10 +504,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -492,7 +516,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -506,10 +530,10 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -518,7 +542,7 @@
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -532,10 +556,10 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
@@ -544,7 +568,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
@@ -558,10 +582,10 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
@@ -570,7 +594,7 @@
         <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -584,10 +608,10 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
@@ -596,7 +620,7 @@
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -610,10 +634,10 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
@@ -622,7 +646,7 @@
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -636,10 +660,10 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
         <v>55</v>
@@ -648,7 +672,7 @@
         <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
         <v>57</v>
@@ -662,10 +686,10 @@
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
         <v>60</v>
@@ -674,13 +698,39 @@
         <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
         <v>62</v>
       </c>
       <c r="H13" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Game/KeyItem.xlsx
+++ b/Original/CN/Game/KeyItem.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>
@@ -255,7 +255,7 @@
     <t xml:space="preserve">黑猫的口水</t>
   </si>
   <si>
-    <t xml:space="preserve">女神的羽毛片</t>
+    <t xml:space="preserve">女神的碎羽</t>
   </si>
   <si>
     <t xml:space="preserve">韦尔尼斯矿场的钥匙</t>
@@ -293,7 +293,7 @@
 加强水井许愿的效果。</t>
   </si>
   <si>
-    <t xml:space="preserve">治愈女神的翅膀上拔下的羽毛的碎片</t>
+    <t xml:space="preserve">治愈女神的翅膀上掉下的一片羽毛</t>
   </si>
   <si>
     <t xml:space="preserve">通往韦尔尼斯矿场深层之门的钥匙。</t>

--- a/Original/CN/Game/KeyItem.xlsx
+++ b/Original/CN/Game/KeyItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.252</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>
@@ -168,6 +168,30 @@
     <t xml:space="preserve">枯れた蔦で編まれたボロボロの腕輪だ。</t>
   </si>
   <si>
+    <t xml:space="preserve">552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubbling Mysterious Vial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泡立つ謎の瓶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A vial filled with a bubbling, clear liquid. It reeks of corruption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泡立つ透明な液体が入った瓶だ。とても穢れた匂いがする。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A vial filled with a bubbling, clear liquid. It smells like detergent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泡立つ透明な液体が入った瓶だ。洗剤の匂いがする。</t>
+  </si>
+  <si>
     <t xml:space="preserve">590</t>
   </si>
   <si>
@@ -240,6 +264,9 @@
     <t xml:space="preserve">EA 23.131</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.207</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.50</t>
   </si>
   <si>
@@ -265,6 +292,9 @@
   </si>
   <si>
     <t xml:space="preserve">宽恕的手环</t>
+  </si>
+  <si>
+    <t xml:space="preserve">装有起泡液体的神秘瓶子</t>
   </si>
   <si>
     <t xml:space="preserve">灯光师执照</t>
@@ -303,6 +333,12 @@
   </si>
   <si>
     <t xml:space="preserve">用枯萎的藤蔓编织而成的破旧手环。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这是装有起泡的透明液体的瓶子。它散发出了污秽的臭味。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这是装有起泡的透明液体的瓶子。它散发出了清洗剂的味道。</t>
   </si>
   <si>
     <t xml:space="preserve">灯光师执照。只要带在身上，就能自由改变灯光的颜色。</t>
@@ -426,10 +462,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -438,7 +474,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -452,10 +488,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -464,7 +500,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -478,10 +514,10 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -490,7 +526,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -504,10 +540,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -516,7 +552,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -530,10 +566,10 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -542,7 +578,7 @@
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -556,10 +592,10 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
@@ -568,7 +604,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
@@ -582,10 +618,10 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
@@ -594,7 +630,7 @@
         <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -608,10 +644,10 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
@@ -620,7 +656,7 @@
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -634,10 +670,10 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
@@ -646,7 +682,7 @@
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -660,77 +696,129 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" t="s">
         <v>55</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>56</v>
-      </c>
-      <c r="F12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
         <v>60</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
         <v>64</v>
       </c>
-      <c r="B14" t="s">
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" t="s">
         <v>70</v>
       </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" t="s">
-        <v>68</v>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Game/KeyItem.xlsx
+++ b/Original/CN/Game/KeyItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Old Charm</t>
@@ -168,30 +168,6 @@
     <t xml:space="preserve">枯れた蔦で編まれたボロボロの腕輪だ。</t>
   </si>
   <si>
-    <t xml:space="preserve">552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bubbling Mysterious Vial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泡立つ謎の瓶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A vial filled with a bubbling, clear liquid. It reeks of corruption.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泡立つ透明な液体が入った瓶だ。とても穢れた匂いがする。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A vial filled with a bubbling, clear liquid. It smells like detergent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泡立つ透明な液体が入った瓶だ。洗剤の匂いがする。</t>
-  </si>
-  <si>
     <t xml:space="preserve">590</t>
   </si>
   <si>
@@ -264,9 +240,6 @@
     <t xml:space="preserve">EA 23.131</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.207</t>
-  </si>
-  <si>
     <t xml:space="preserve">EA 23.50</t>
   </si>
   <si>
@@ -292,9 +265,6 @@
   </si>
   <si>
     <t xml:space="preserve">宽恕的手环</t>
-  </si>
-  <si>
-    <t xml:space="preserve">装有起泡液体的神秘瓶子</t>
   </si>
   <si>
     <t xml:space="preserve">灯光师执照</t>
@@ -333,12 +303,6 @@
   </si>
   <si>
     <t xml:space="preserve">用枯萎的藤蔓编织而成的破旧手环。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">这是装有起泡的透明液体的瓶子。它散发出了污秽的臭味。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">这是装有起泡的透明液体的瓶子。它散发出了清洗剂的味道。</t>
   </si>
   <si>
     <t xml:space="preserve">灯光师执照。只要带在身上，就能自由改变灯光的颜色。</t>
@@ -462,10 +426,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -474,7 +438,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -488,10 +452,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -500,7 +464,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -514,10 +478,10 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -526,7 +490,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -540,10 +504,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -552,7 +516,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -566,10 +530,10 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -578,7 +542,7 @@
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -592,10 +556,10 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
@@ -604,7 +568,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
@@ -618,10 +582,10 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
@@ -630,7 +594,7 @@
         <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -644,10 +608,10 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
@@ -656,7 +620,7 @@
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -670,10 +634,10 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
@@ -682,7 +646,7 @@
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -696,129 +660,77 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" t="s">
         <v>68</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
